--- a/Isochrone/Excel Data/banks.xlsx
+++ b/Isochrone/Excel Data/banks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo Allen\Desktop\Isochrones\isochrones\Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF99B8C7-9490-414E-A882-F2C2B3F42A67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C1DCEF-C108-40BD-AC2B-7FA52A970AA6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="6150" windowWidth="25440" windowHeight="15390" xr2:uid="{2CF4050E-99DE-4F22-91B6-D378B4808456}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Number</t>
   </si>
@@ -67,12 +67,6 @@
   </si>
   <si>
     <t>Bank</t>
-  </si>
-  <si>
-    <t>DIETEL PARTNERS</t>
-  </si>
-  <si>
-    <t>PO Box 309 Flint Hill, VA 22627 (540) 675-3104</t>
   </si>
   <si>
     <t>OAK VIEW NATIONAL BANK</t>
@@ -433,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A945F21-F820-4E99-B80B-7032B3751535}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -505,21 +499,13 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
+      <c r="G3">
         <v>-77.983169555664006</v>
       </c>
-      <c r="H4">
+      <c r="H3">
         <v>38.481025695800703</v>
       </c>
     </row>
